--- a/Big Bang/Batch Upload/Student/Internship.xlsx
+++ b/Big Bang/Batch Upload/Student/Internship.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="17235" windowHeight="9270"/>
@@ -11,15 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$5</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Evaluation form?</t>
   </si>
@@ -45,6 +42,9 @@
     <t>Student_ID_Number</t>
   </si>
   <si>
+    <t>text</t>
+  </si>
+  <si>
     <t>Company_Name</t>
   </si>
   <si>
@@ -70,13 +70,34 @@
   </si>
   <si>
     <t>Total_Work_Hours</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>yes/no</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>currently taking</t>
+  </si>
+  <si>
+    <t>dropped</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,7 +120,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,7 +129,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor rgb="FFD5A6BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -153,119 +180,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -273,32 +201,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q1048576" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
-  <autoFilter ref="A1:Q1048576"/>
-  <tableColumns count="17">
-    <tableColumn id="1" name="Last_Name" dataDxfId="16"/>
-    <tableColumn id="2" name="First_Name" dataDxfId="15"/>
-    <tableColumn id="3" name="Middle_Initial" dataDxfId="14"/>
-    <tableColumn id="4" name="Student_ID_Number" dataDxfId="13"/>
-    <tableColumn id="5" name="Company_Information" dataDxfId="12"/>
-    <tableColumn id="6" name="Company_Name" dataDxfId="11"/>
-    <tableColumn id="7" name="Company_Address" dataDxfId="10"/>
-    <tableColumn id="8" name="Department" dataDxfId="9"/>
-    <tableColumn id="9" name="Supervisor_Name" dataDxfId="8"/>
-    <tableColumn id="10" name="Supervisor_Contact" dataDxfId="7"/>
-    <tableColumn id="11" name="Supervisor_Email" dataDxfId="6"/>
-    <tableColumn id="12" name="Start_Date" dataDxfId="5"/>
-    <tableColumn id="13" name="End_Date" dataDxfId="4"/>
-    <tableColumn id="14" name="Total_Work_Hours" dataDxfId="3"/>
-    <tableColumn id="15" name="Evaluation form?" dataDxfId="2"/>
-    <tableColumn id="16" name="Status" dataDxfId="1"/>
-    <tableColumn id="17" name="Remarks" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -376,6 +278,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -410,6 +313,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -585,35 +489,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="27.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="25" style="2" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="25.85546875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="25.85546875" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="31.5" customHeight="1">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -626,132 +530,138 @@
       <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>2</v>
+      <c r="F2">
+        <v>255</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>255</v>
+      </c>
+      <c r="I2">
+        <v>250</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="17">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input.&#10;Must only be 45 characters long&#10;" prompt="Name must be 45 characters at most" sqref="A1:A1048576">
-      <formula1>1</formula1>
-      <formula2>45</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input.&#10;Must only be 45 characters long" prompt="Name must be 45 characters at most." sqref="B1:B1048576">
-      <formula1>1</formula1>
-      <formula2>45</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input. Please indicate initial only." prompt="Text must contain 5 characters at most." sqref="C1:C1048576">
-      <formula1>0</formula1>
-      <formula2>5</formula2>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input.&#10;Must only be 10 characters long." prompt="ID number must be 10 characters at most." sqref="D1:D1048576">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input. " prompt="Text only." sqref="E2:E1048576">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input. Must be 255 characters or less." prompt="Text must be 255 characters at most" sqref="F1:F1048576">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input.&#10;Must be 250 characters or less." prompt="Text must be 250 characters at most" sqref="I1:I1048576">
-      <formula1>1</formula1>
-      <formula2>250</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input. Must only be 45 characters long" prompt="Text must be 45 characters at most" sqref="J1:J1048576">
-      <formula1>1</formula1>
-      <formula2>45</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input. &#10;Must be 255 characters or less" prompt="Text must be 255 characters at most" sqref="H1:H1048576">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Text should only be 100 characters or less" prompt="Text must be 100 characters at most" sqref="K1:K1048576">
-      <formula1>1</formula1>
-      <formula2>100</formula2>
-    </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please indicate valid date for internship." prompt="Date must be later than 2010" sqref="L1:L1048576">
-      <formula1>40179</formula1>
-    </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please indicate valid date." prompt="Must be a valid date" sqref="M1:M1048576">
-      <formula1>40179</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input.&#10;Must indicate total work hours." prompt="Indicate total number of hours" sqref="N1:N1048576">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input.&#10;Must be yes or no" prompt="Answer must be yes or no." sqref="O1:O1048576">
-      <formula1>"yes,no"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input. &#10;Must be Status must be currently taking, dropped, passed or fail." prompt="Status must be currently taking, dropped, passed or fail." sqref="P1">
-      <formula1>"currently taking,dropped,passed,fail"</formula1>
-    </dataValidation>
-    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input. " sqref="E1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input. &#10;Status must be currently taking, dropped, passed or fail." prompt="Status must be currently taking, dropped, passed or fail." sqref="P2:P1048576">
-      <formula1>"currently taking,dropped,passed,fail"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
